--- a/StructureDefinition-ext-R5-Appointment.recurrenceTemplate.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.recurrenceTemplate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Appointment.recurrenceTemplate` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Appointment.recurrenceTemplate` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Appointment</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.timezone` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.timezone` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.timezone` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:timezone.id</t>
@@ -422,7 +422,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.recurrenceType` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.recurrenceType` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.recurrenceType` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:recurrenceType.id</t>
@@ -450,7 +450,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.lastOccurrenceDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.lastOccurrenceDate` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.lastOccurrenceDate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:lastOccurrenceDate.id</t>
@@ -482,7 +482,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.occurrenceCount` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.occurrenceCount` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.occurrenceCount` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:occurrenceCount.id</t>
@@ -514,7 +514,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.occurrenceDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.occurrenceDate` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.occurrenceDate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:occurrenceDate.id</t>
@@ -542,7 +542,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.id</t>
@@ -564,7 +564,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:monday.id</t>
@@ -608,7 +608,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:tuesday.id</t>
@@ -636,7 +636,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:wednesday.id</t>
@@ -664,7 +664,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:thursday.id</t>
@@ -692,7 +692,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:friday.id</t>
@@ -720,7 +720,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:saturday.id</t>
@@ -748,7 +748,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:sunday.id</t>
@@ -778,7 +778,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:weekInterval.id</t>
@@ -825,7 +825,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.id</t>
@@ -847,7 +847,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfMonth.id</t>
@@ -875,7 +875,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:nthWeekOfMonth.id</t>
@@ -910,7 +910,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek.id</t>
@@ -947,7 +947,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:monthInterval.id</t>
@@ -984,7 +984,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.yearlyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.yearlyTemplate` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.yearlyTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:yearlyTemplate.id</t>
@@ -1006,7 +1006,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.yearlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:yearlyTemplate.extension:yearInterval.id</t>
@@ -1046,7 +1046,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.excludingDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.excludingDate` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.excludingDate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:excludingDate.id</t>
@@ -1074,7 +1074,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.excludingRecurrenceId` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.excludingRecurrenceId` is mapped to FHIR R4 structure `Appointment`, but has no target element specified.</t>
+Element `Appointment.recurrenceTemplate.excludingRecurrenceId` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:excludingRecurrenceId.id</t>

--- a/StructureDefinition-ext-R5-Appointment.recurrenceTemplate.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.recurrenceTemplate.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="362">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Appointment.recurrenceTemplate` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Appointment.recurrenceTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.timezone` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.timezone` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.timezone` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:timezone.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.timezone</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -422,7 +425,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.recurrenceType` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.recurrenceType` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.recurrenceType` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:recurrenceType.id</t>
@@ -434,6 +437,9 @@
     <t>Extension.extension:recurrenceType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.recurrenceType</t>
+  </si>
+  <si>
     <t>Extension.extension:recurrenceType.value[x]</t>
   </si>
   <si>
@@ -450,7 +456,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.lastOccurrenceDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.lastOccurrenceDate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.lastOccurrenceDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:lastOccurrenceDate.id</t>
@@ -460,6 +466,9 @@
   </si>
   <si>
     <t>Extension.extension:lastOccurrenceDate.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.lastOccurrenceDate</t>
   </si>
   <si>
     <t>Extension.extension:lastOccurrenceDate.value[x]</t>
@@ -482,7 +491,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.occurrenceCount` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.occurrenceCount` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.occurrenceCount` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:occurrenceCount.id</t>
@@ -492,6 +501,9 @@
   </si>
   <si>
     <t>Extension.extension:occurrenceCount.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.occurrenceCount</t>
   </si>
   <si>
     <t>Extension.extension:occurrenceCount.value[x]</t>
@@ -514,7 +526,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.occurrenceDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.occurrenceDate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.occurrenceDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:occurrenceDate.id</t>
@@ -526,6 +538,9 @@
     <t>Extension.extension:occurrenceDate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.occurrenceDate</t>
+  </si>
+  <si>
     <t>Extension.extension:occurrenceDate.value[x]</t>
   </si>
   <si>
@@ -542,7 +557,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.id</t>
@@ -564,7 +579,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:monday.id</t>
@@ -583,6 +598,9 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.monday</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:monday.value[x]</t>
@@ -608,7 +626,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:tuesday.id</t>
@@ -620,6 +638,9 @@
     <t>Extension.extension:weeklyTemplate.extension:tuesday.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.tuesday</t>
+  </si>
+  <si>
     <t>Extension.extension:weeklyTemplate.extension:tuesday.value[x]</t>
   </si>
   <si>
@@ -636,7 +657,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:wednesday.id</t>
@@ -648,6 +669,9 @@
     <t>Extension.extension:weeklyTemplate.extension:wednesday.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.wednesday</t>
+  </si>
+  <si>
     <t>Extension.extension:weeklyTemplate.extension:wednesday.value[x]</t>
   </si>
   <si>
@@ -664,7 +688,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:thursday.id</t>
@@ -676,6 +700,9 @@
     <t>Extension.extension:weeklyTemplate.extension:thursday.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.thursday</t>
+  </si>
+  <si>
     <t>Extension.extension:weeklyTemplate.extension:thursday.value[x]</t>
   </si>
   <si>
@@ -692,7 +719,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:friday.id</t>
@@ -704,6 +731,9 @@
     <t>Extension.extension:weeklyTemplate.extension:friday.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.friday</t>
+  </si>
+  <si>
     <t>Extension.extension:weeklyTemplate.extension:friday.value[x]</t>
   </si>
   <si>
@@ -720,7 +750,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:saturday.id</t>
@@ -732,6 +762,9 @@
     <t>Extension.extension:weeklyTemplate.extension:saturday.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.saturday</t>
+  </si>
+  <si>
     <t>Extension.extension:weeklyTemplate.extension:saturday.value[x]</t>
   </si>
   <si>
@@ -748,7 +781,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:sunday.id</t>
@@ -758,6 +791,9 @@
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:sunday.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.sunday</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:sunday.value[x]</t>
@@ -778,7 +814,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:weekInterval.id</t>
@@ -788,6 +824,9 @@
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:weekInterval.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.weekInterval</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:weekInterval.value[x]</t>
@@ -825,7 +864,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.id</t>
@@ -847,7 +886,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfMonth.id</t>
@@ -859,6 +898,9 @@
     <t>Extension.extension:monthlyTemplate.extension:dayOfMonth.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth</t>
+  </si>
+  <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfMonth.value[x]</t>
   </si>
   <si>
@@ -875,7 +917,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:nthWeekOfMonth.id</t>
@@ -885,6 +927,9 @@
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:nthWeekOfMonth.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:nthWeekOfMonth.value[x]</t>
@@ -910,7 +955,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek.id</t>
@@ -922,6 +967,9 @@
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek</t>
+  </si>
+  <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek.value[x]</t>
   </si>
   <si>
@@ -947,7 +995,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:monthInterval.id</t>
@@ -959,6 +1007,9 @@
     <t>Extension.extension:monthlyTemplate.extension:monthInterval.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate.monthInterval</t>
+  </si>
+  <si>
     <t>Extension.extension:monthlyTemplate.extension:monthInterval.value[x]</t>
   </si>
   <si>
@@ -984,7 +1035,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.yearlyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.yearlyTemplate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.yearlyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:yearlyTemplate.id</t>
@@ -1006,7 +1057,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.yearlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:yearlyTemplate.extension:yearInterval.id</t>
@@ -1018,6 +1069,9 @@
     <t>Extension.extension:yearlyTemplate.extension:yearInterval.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.yearlyTemplate.yearInterval</t>
+  </si>
+  <si>
     <t>Extension.extension:yearlyTemplate.extension:yearInterval.value[x]</t>
   </si>
   <si>
@@ -1046,7 +1100,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.excludingDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.excludingDate` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.excludingDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:excludingDate.id</t>
@@ -1058,6 +1112,9 @@
     <t>Extension.extension:excludingDate.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.excludingDate</t>
+  </si>
+  <si>
     <t>Extension.extension:excludingDate.value[x]</t>
   </si>
   <si>
@@ -1074,7 +1131,7 @@
   </si>
   <si>
     <t>Element `Appointment.recurrenceTemplate.excludingRecurrenceId` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.excludingRecurrenceId` is will have a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+Element `Appointment.recurrenceTemplate.excludingRecurrenceId` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:excludingRecurrenceId.id</t>
@@ -1084,6 +1141,9 @@
   </si>
   <si>
     <t>Extension.extension:excludingRecurrenceId.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.excludingRecurrenceId</t>
   </si>
   <si>
     <t>Extension.extension:excludingRecurrenceId.value[x]</t>
@@ -2232,7 +2292,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2274,7 +2334,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2289,15 +2349,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2320,7 +2380,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2377,7 +2437,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2389,21 +2449,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2428,14 +2488,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2504,7 +2564,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2607,7 +2667,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2712,7 +2772,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2755,7 +2815,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2797,7 +2857,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2812,15 +2872,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2843,13 +2903,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2900,7 +2960,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2912,21 +2972,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2951,14 +3011,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3027,7 +3087,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3130,7 +3190,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3235,7 +3295,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3278,7 +3338,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3320,7 +3380,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3335,15 +3395,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3366,13 +3426,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3423,7 +3483,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3435,21 +3495,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3474,14 +3534,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3550,7 +3610,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3653,7 +3713,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3758,7 +3818,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3801,7 +3861,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3843,7 +3903,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3858,15 +3918,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3889,13 +3949,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3946,7 +4006,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3958,21 +4018,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3997,14 +4057,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4073,7 +4133,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4176,7 +4236,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4281,7 +4341,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4324,7 +4384,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4366,7 +4426,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4381,15 +4441,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4412,13 +4472,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4469,7 +4529,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4481,21 +4541,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4520,14 +4580,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4596,7 +4656,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4699,7 +4759,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4802,13 +4862,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4833,14 +4893,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4909,10 +4969,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5012,10 +5072,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5117,10 +5177,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5160,7 +5220,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5202,7 +5262,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>86</v>
@@ -5217,15 +5277,15 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5248,13 +5308,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5305,7 +5365,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5317,21 +5377,21 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5356,14 +5416,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5432,10 +5492,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5535,10 +5595,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5640,10 +5700,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5683,7 +5743,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5725,7 +5785,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
@@ -5740,15 +5800,15 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5771,13 +5831,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5828,7 +5888,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -5840,21 +5900,21 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5879,14 +5939,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5955,10 +6015,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6058,10 +6118,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6163,10 +6223,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6206,7 +6266,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6248,7 +6308,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6263,15 +6323,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6294,13 +6354,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6351,7 +6411,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6363,21 +6423,21 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6402,14 +6462,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6478,10 +6538,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6581,10 +6641,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6686,10 +6746,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6729,7 +6789,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6771,7 +6831,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6786,15 +6846,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6817,13 +6877,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6874,7 +6934,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6886,21 +6946,21 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6925,14 +6985,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7001,10 +7061,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7104,10 +7164,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7209,10 +7269,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7252,7 +7312,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7294,7 +7354,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7309,15 +7369,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7340,13 +7400,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7397,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7409,21 +7469,21 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7448,14 +7508,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7524,10 +7584,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7627,10 +7687,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7732,10 +7792,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7775,7 +7835,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7817,7 +7877,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>86</v>
@@ -7832,15 +7892,15 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7863,13 +7923,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7920,7 +7980,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -7932,21 +7992,21 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7971,14 +8031,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8047,10 +8107,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8150,10 +8210,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8255,10 +8315,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8298,7 +8358,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8340,7 +8400,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>86</v>
@@ -8355,15 +8415,15 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8386,13 +8446,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8443,7 +8503,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -8455,21 +8515,21 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8494,14 +8554,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8570,10 +8630,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8673,10 +8733,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8778,10 +8838,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8821,7 +8881,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8863,7 +8923,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>86</v>
@@ -8878,15 +8938,15 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8909,13 +8969,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8966,7 +9026,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -8978,15 +9038,15 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -9029,7 +9089,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9071,7 +9131,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9086,15 +9146,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9117,13 +9177,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9174,7 +9234,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9186,21 +9246,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9225,14 +9285,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9301,7 +9361,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9404,7 +9464,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9507,13 +9567,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9538,14 +9598,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9614,10 +9674,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9717,10 +9777,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9822,10 +9882,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9865,7 +9925,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9907,7 +9967,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>86</v>
@@ -9922,15 +9982,15 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9953,13 +10013,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10010,7 +10070,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10022,21 +10082,21 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10061,14 +10121,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10137,10 +10197,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10240,10 +10300,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10345,10 +10405,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10388,7 +10448,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10430,7 +10490,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>86</v>
@@ -10445,15 +10505,15 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10476,13 +10536,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10533,7 +10593,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -10545,21 +10605,21 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10584,16 +10644,16 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10662,10 +10722,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10765,10 +10825,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10870,10 +10930,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10913,7 +10973,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -10955,7 +11015,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -10970,15 +11030,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11001,16 +11061,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11036,13 +11096,13 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -11060,7 +11120,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11072,21 +11132,21 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11111,14 +11171,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11187,10 +11247,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11290,10 +11350,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11395,10 +11455,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11438,7 +11498,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11480,7 +11540,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>86</v>
@@ -11495,15 +11555,15 @@
         <v>77</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11526,13 +11586,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11583,7 +11643,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -11595,15 +11655,15 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -11646,7 +11706,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11688,7 +11748,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>86</v>
@@ -11703,15 +11763,15 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11734,13 +11794,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11791,7 +11851,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -11803,21 +11863,21 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11842,14 +11902,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -11918,7 +11978,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -12021,7 +12081,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -12124,13 +12184,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12155,14 +12215,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12231,10 +12291,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12334,10 +12394,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12439,10 +12499,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12482,7 +12542,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12524,7 +12584,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -12539,15 +12599,15 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>319</v>
+        <v>337</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12570,13 +12630,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12627,7 +12687,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -12639,15 +12699,15 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>113</v>
@@ -12690,7 +12750,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12732,7 +12792,7 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>86</v>
@@ -12747,15 +12807,15 @@
         <v>77</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12778,13 +12838,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -12835,7 +12895,7 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -12847,21 +12907,21 @@
         <v>77</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -12886,16 +12946,16 @@
         <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>328</v>
+        <v>346</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -12964,7 +13024,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>329</v>
+        <v>347</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>105</v>
@@ -13067,7 +13127,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>330</v>
+        <v>348</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>107</v>
@@ -13172,7 +13232,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>113</v>
@@ -13215,7 +13275,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13257,7 +13317,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -13272,15 +13332,15 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13303,16 +13363,16 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -13362,7 +13422,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -13374,21 +13434,21 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13413,16 +13473,16 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13491,7 +13551,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>105</v>
@@ -13594,7 +13654,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>107</v>
@@ -13699,7 +13759,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>113</v>
@@ -13742,7 +13802,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -13784,7 +13844,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>86</v>
@@ -13799,15 +13859,15 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -13830,16 +13890,16 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -13889,7 +13949,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -13901,18 +13961,18 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -13994,7 +14054,7 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>86</v>
@@ -14009,15 +14069,15 @@
         <v>77</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14040,13 +14100,13 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -14097,7 +14157,7 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>78</v>
@@ -14109,10 +14169,10 @@
         <v>77</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-Appointment.recurrenceTemplate.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.recurrenceTemplate.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="359">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -971,15 +971,6 @@
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek.value[x]</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The days of the week.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-days-of-week-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:monthInterval</t>
@@ -1496,8 +1487,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.4296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.17578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -11096,13 +11087,13 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>307</v>
+        <v>77</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -11140,13 +11131,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11171,14 +11162,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11247,7 +11238,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>181</v>
@@ -11350,7 +11341,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>183</v>
@@ -11455,7 +11446,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>185</v>
@@ -11498,7 +11489,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11560,7 +11551,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>188</v>
@@ -11589,10 +11580,10 @@
         <v>157</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11663,7 +11654,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -11706,7 +11697,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11768,7 +11759,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>122</v>
@@ -11871,13 +11862,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11902,14 +11893,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -11978,7 +11969,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -12081,7 +12072,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -12184,13 +12175,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12215,14 +12206,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12291,7 +12282,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>181</v>
@@ -12394,7 +12385,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>183</v>
@@ -12499,7 +12490,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>185</v>
@@ -12542,7 +12533,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12604,7 +12595,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>188</v>
@@ -12633,10 +12624,10 @@
         <v>157</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12707,7 +12698,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>113</v>
@@ -12750,7 +12741,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12812,7 +12803,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>122</v>
@@ -12915,13 +12906,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -12946,16 +12937,16 @@
         <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O110" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13024,7 +13015,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>105</v>
@@ -13127,7 +13118,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>107</v>
@@ -13232,7 +13223,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>113</v>
@@ -13275,7 +13266,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13337,7 +13328,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>122</v>
@@ -13366,13 +13357,13 @@
         <v>146</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -13442,13 +13433,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13473,16 +13464,16 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13551,7 +13542,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>105</v>
@@ -13654,7 +13645,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>107</v>
@@ -13759,7 +13750,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>113</v>
@@ -13802,7 +13793,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -13864,7 +13855,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>122</v>
@@ -13893,13 +13884,13 @@
         <v>157</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">

--- a/StructureDefinition-ext-R5-Appointment.recurrenceTemplate.xlsx
+++ b/StructureDefinition-ext-R5-Appointment.recurrenceTemplate.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="341">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>The timezone of the recurring appointment occurrences.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.timezone` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.timezone` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.timezone` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:timezone.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.timezone</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,8 +420,7 @@
     <t>How often the appointment series should recur.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.recurrenceType` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.recurrenceType` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.recurrenceType` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:recurrenceType.id</t>
@@ -437,9 +432,6 @@
     <t>Extension.extension:recurrenceType.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.recurrenceType</t>
-  </si>
-  <si>
     <t>Extension.extension:recurrenceType.value[x]</t>
   </si>
   <si>
@@ -455,8 +447,7 @@
     <t>Recurring appointments will not occur after this date.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.lastOccurrenceDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.lastOccurrenceDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.lastOccurrenceDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:lastOccurrenceDate.id</t>
@@ -466,9 +457,6 @@
   </si>
   <si>
     <t>Extension.extension:lastOccurrenceDate.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.lastOccurrenceDate</t>
   </si>
   <si>
     <t>Extension.extension:lastOccurrenceDate.value[x]</t>
@@ -490,8 +478,7 @@
     <t>How many appointments are planned in the recurrence.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.occurrenceCount` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.occurrenceCount` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.occurrenceCount` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:occurrenceCount.id</t>
@@ -501,9 +488,6 @@
   </si>
   <si>
     <t>Extension.extension:occurrenceCount.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.occurrenceCount</t>
   </si>
   <si>
     <t>Extension.extension:occurrenceCount.value[x]</t>
@@ -525,8 +509,7 @@
     <t>The list of specific dates that will have appointments generated.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.occurrenceDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.occurrenceDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.occurrenceDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:occurrenceDate.id</t>
@@ -538,9 +521,6 @@
     <t>Extension.extension:occurrenceDate.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.occurrenceDate</t>
-  </si>
-  <si>
     <t>Extension.extension:occurrenceDate.value[x]</t>
   </si>
   <si>
@@ -556,8 +536,7 @@
     <t>Information about weekly recurring appointments.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.id</t>
@@ -578,8 +557,7 @@
     <t>Indicates that recurring appointments should occur on Mondays.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.monday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:monday.id</t>
@@ -598,9 +576,6 @@
   </si>
   <si>
     <t>Extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.monday</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:monday.value[x]</t>
@@ -625,8 +600,7 @@
     <t>Indicates that recurring appointments should occur on Tuesdays.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.tuesday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:tuesday.id</t>
@@ -638,9 +612,6 @@
     <t>Extension.extension:weeklyTemplate.extension:tuesday.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.tuesday</t>
-  </si>
-  <si>
     <t>Extension.extension:weeklyTemplate.extension:tuesday.value[x]</t>
   </si>
   <si>
@@ -656,8 +627,7 @@
     <t>Indicates that recurring appointments should occur on Wednesdays.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.wednesday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:wednesday.id</t>
@@ -669,9 +639,6 @@
     <t>Extension.extension:weeklyTemplate.extension:wednesday.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.wednesday</t>
-  </si>
-  <si>
     <t>Extension.extension:weeklyTemplate.extension:wednesday.value[x]</t>
   </si>
   <si>
@@ -687,8 +654,7 @@
     <t>Indicates that recurring appointments should occur on Thursdays.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.thursday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:thursday.id</t>
@@ -700,9 +666,6 @@
     <t>Extension.extension:weeklyTemplate.extension:thursday.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.thursday</t>
-  </si>
-  <si>
     <t>Extension.extension:weeklyTemplate.extension:thursday.value[x]</t>
   </si>
   <si>
@@ -718,8 +681,7 @@
     <t>Indicates that recurring appointments should occur on Fridays.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.friday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:friday.id</t>
@@ -731,9 +693,6 @@
     <t>Extension.extension:weeklyTemplate.extension:friday.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.friday</t>
-  </si>
-  <si>
     <t>Extension.extension:weeklyTemplate.extension:friday.value[x]</t>
   </si>
   <si>
@@ -749,8 +708,7 @@
     <t>Indicates that recurring appointments should occur on Saturdays.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.saturday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:saturday.id</t>
@@ -762,9 +720,6 @@
     <t>Extension.extension:weeklyTemplate.extension:saturday.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.saturday</t>
-  </si>
-  <si>
     <t>Extension.extension:weeklyTemplate.extension:saturday.value[x]</t>
   </si>
   <si>
@@ -780,8 +735,7 @@
     <t>Indicates that recurring appointments should occur on Sundays.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.sunday` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:sunday.id</t>
@@ -791,9 +745,6 @@
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:sunday.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.sunday</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:sunday.value[x]</t>
@@ -813,8 +764,7 @@
 e.g. For recurring every second week this interval would be 2, or every third week the interval would be 3.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.weeklyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.weeklyTemplate.weekInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.extension:weekInterval.id</t>
@@ -826,16 +776,10 @@
     <t>Extension.extension:weeklyTemplate.extension:weekInterval.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate.weekInterval</t>
-  </si>
-  <si>
     <t>Extension.extension:weeklyTemplate.extension:weekInterval.value[x]</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.weeklyTemplate</t>
   </si>
   <si>
     <t>Extension.extension:weeklyTemplate.value[x]</t>
@@ -863,8 +807,7 @@
     <t>Information about monthly recurring appointments.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.id</t>
@@ -885,8 +828,7 @@
     <t>Indicates that appointments in the series of recurring appointments should occur on a specific day of the month.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfMonth.id</t>
@@ -898,9 +840,6 @@
     <t>Extension.extension:monthlyTemplate.extension:dayOfMonth.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate.dayOfMonth</t>
-  </si>
-  <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfMonth.value[x]</t>
   </si>
   <si>
@@ -916,8 +855,7 @@
     <t>Indicates which week within a month the appointments in the series of recurring appointments should occur on.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:nthWeekOfMonth.id</t>
@@ -927,9 +865,6 @@
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:nthWeekOfMonth.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate.nthWeekOfMonth</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:nthWeekOfMonth.value[x]</t>
@@ -939,6 +874,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The set of weeks in a month.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-week-of-month-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek</t>
   </si>
   <si>
@@ -954,8 +898,7 @@
     <t>This property is intended to be used with Appointment.recurrenceTemplate.monthly.nthWeek.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek.id</t>
@@ -967,12 +910,15 @@
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate.dayOfWeek</t>
-  </si>
-  <si>
     <t>Extension.extension:monthlyTemplate.extension:dayOfWeek.value[x]</t>
   </si>
   <si>
+    <t>The days of the week.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/days-of-week|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:monthlyTemplate.extension:monthInterval</t>
   </si>
   <si>
@@ -985,8 +931,7 @@
     <t>Indicates that recurring appointments should occur every nth month.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.monthlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.monthlyTemplate.monthInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.extension:monthInterval.id</t>
@@ -998,18 +943,12 @@
     <t>Extension.extension:monthlyTemplate.extension:monthInterval.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate.monthInterval</t>
-  </si>
-  <si>
     <t>Extension.extension:monthlyTemplate.extension:monthInterval.value[x]</t>
   </si>
   <si>
     <t>Extension.extension:monthlyTemplate.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.monthlyTemplate</t>
-  </si>
-  <si>
     <t>Extension.extension:monthlyTemplate.value[x]</t>
   </si>
   <si>
@@ -1025,8 +964,7 @@
     <t>Information about yearly recurring appointments.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.yearlyTemplate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.yearlyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.yearlyTemplate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:yearlyTemplate.id</t>
@@ -1047,8 +985,7 @@
     <t>Appointment recurs every nth year.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` is part of an existing definition because parent element `Appointment.recurrenceTemplate.yearlyTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.yearlyTemplate.yearInterval` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:yearlyTemplate.extension:yearInterval.id</t>
@@ -1060,18 +997,12 @@
     <t>Extension.extension:yearlyTemplate.extension:yearInterval.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.yearlyTemplate.yearInterval</t>
-  </si>
-  <si>
     <t>Extension.extension:yearlyTemplate.extension:yearInterval.value[x]</t>
   </si>
   <si>
     <t>Extension.extension:yearlyTemplate.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.yearlyTemplate</t>
-  </si>
-  <si>
     <t>Extension.extension:yearlyTemplate.value[x]</t>
   </si>
   <si>
@@ -1090,8 +1021,7 @@
     <t>excludingDate is an alternative to excludingRecurrenceId.  You may say either that 12/25/XXXX should be excluded using excludingDate, or you may indicate the recurrenceId of the appointment that would fall on the excluded date in the excludingRecurrenceId property.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.excludingDate` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.excludingDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.excludingDate` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:excludingDate.id</t>
@@ -1103,9 +1033,6 @@
     <t>Extension.extension:excludingDate.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.excludingDate</t>
-  </si>
-  <si>
     <t>Extension.extension:excludingDate.value[x]</t>
   </si>
   <si>
@@ -1121,8 +1048,7 @@
     <t>excludingRecurrenceId is an alternative to excludingDate.  You may say either that 12/25/XXXX should be excluded using excludingDate, or you may indicate the recurrenceId of the appointment that would fall on the excluded date in the excludingRecurrenceId property.</t>
   </si>
   <si>
-    <t>Element `Appointment.recurrenceTemplate.excludingRecurrenceId` is part of an existing definition because parent element `Appointment.recurrenceTemplate` requires a cross-version extension.
-Element `Appointment.recurrenceTemplate.excludingRecurrenceId` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
+    <t>Element `Appointment.recurrenceTemplate.excludingRecurrenceId` has a context of Appointment based on following the parent source element upwards and mapping to `Appointment`.</t>
   </si>
   <si>
     <t>Extension.extension:excludingRecurrenceId.id</t>
@@ -1132,9 +1058,6 @@
   </si>
   <si>
     <t>Extension.extension:excludingRecurrenceId.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Appointment.recurrenceTemplate.excludingRecurrenceId</t>
   </si>
   <si>
     <t>Extension.extension:excludingRecurrenceId.value[x]</t>
@@ -1477,7 +1400,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="183.53125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="161.62890625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1487,8 +1410,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="23.96875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.20703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2283,72 +2206,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2371,7 +2294,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -2428,33 +2351,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2479,14 +2402,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2555,7 +2478,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2658,7 +2581,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2763,7 +2686,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2806,7 +2729,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2848,30 +2771,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2894,13 +2817,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2951,33 +2874,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3002,14 +2925,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3078,7 +3001,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -3181,7 +3104,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3286,7 +3209,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3329,7 +3252,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3371,30 +3294,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3417,13 +3340,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3474,33 +3397,33 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3525,14 +3448,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3601,7 +3524,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3704,7 +3627,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3809,7 +3732,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3852,7 +3775,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3894,30 +3817,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3940,13 +3863,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3997,33 +3920,33 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4048,14 +3971,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4124,7 +4047,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -4227,7 +4150,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -4332,7 +4255,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -4375,7 +4298,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4417,30 +4340,30 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4463,13 +4386,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4520,33 +4443,33 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4571,14 +4494,14 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4647,7 +4570,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4750,7 +4673,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4853,13 +4776,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>77</v>
@@ -4884,14 +4807,14 @@
         <v>93</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -4960,10 +4883,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5063,10 +4986,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5168,10 +5091,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5211,7 +5134,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>77</v>
@@ -5253,30 +5176,30 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5299,13 +5222,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5356,33 +5279,33 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK37" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5407,14 +5330,14 @@
         <v>93</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5483,10 +5406,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5586,10 +5509,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5691,10 +5614,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5734,7 +5657,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5776,30 +5699,30 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5822,13 +5745,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5879,33 +5802,33 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK42" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5930,14 +5853,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6006,10 +5929,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6109,10 +6032,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6214,10 +6137,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6257,7 +6180,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6299,30 +6222,30 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6345,13 +6268,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6402,33 +6325,33 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK47" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6453,14 +6376,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6529,10 +6452,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6632,10 +6555,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6737,10 +6660,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6780,7 +6703,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6822,30 +6745,30 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6868,13 +6791,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6925,33 +6848,33 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK52" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6976,14 +6899,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -7052,10 +6975,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7155,10 +7078,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7260,10 +7183,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7303,7 +7226,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7345,30 +7268,30 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7391,13 +7314,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7448,33 +7371,33 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK57" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7499,14 +7422,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7575,10 +7498,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7678,10 +7601,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7783,10 +7706,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7826,7 +7749,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7868,30 +7791,30 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7914,13 +7837,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7971,33 +7894,33 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK62" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8022,14 +7945,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -8098,10 +8021,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8201,10 +8124,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8306,10 +8229,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8349,7 +8272,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8391,30 +8314,30 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8437,13 +8360,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8494,33 +8417,33 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK67" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8545,14 +8468,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8621,10 +8544,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8724,10 +8647,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8829,10 +8752,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8872,7 +8795,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8914,30 +8837,30 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8960,13 +8883,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9017,27 +8940,27 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK72" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>113</v>
@@ -9080,7 +9003,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9122,30 +9045,30 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9168,13 +9091,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9225,33 +9148,33 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK74" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9276,14 +9199,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9352,7 +9275,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>105</v>
@@ -9455,7 +9378,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>107</v>
@@ -9558,13 +9481,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9589,14 +9512,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9665,10 +9588,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9768,10 +9691,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9873,10 +9796,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9916,7 +9839,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9958,30 +9881,30 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10004,13 +9927,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10061,33 +9984,33 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK82" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -10112,14 +10035,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -10188,10 +10111,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10291,10 +10214,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10396,10 +10319,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10439,7 +10362,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -10481,30 +10404,30 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10527,13 +10450,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10560,13 +10483,13 @@
         <v>77</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>77</v>
@@ -10584,33 +10507,33 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK87" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -10635,16 +10558,16 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -10713,10 +10636,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10816,10 +10739,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10921,10 +10844,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10964,7 +10887,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11006,30 +10929,30 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK91" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11052,16 +10975,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -11087,13 +11010,13 @@
         <v>77</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>77</v>
@@ -11111,33 +11034,33 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG92" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK92" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -11162,14 +11085,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -11238,10 +11161,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11341,10 +11264,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -11446,10 +11369,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11489,7 +11412,7 @@
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>77</v>
@@ -11531,30 +11454,30 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK96" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11577,13 +11500,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11634,27 +11557,27 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK97" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>113</v>
@@ -11697,7 +11620,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11739,30 +11662,30 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11785,13 +11708,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11842,33 +11765,33 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK99" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -11893,14 +11816,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -11969,7 +11892,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>105</v>
@@ -12072,7 +11995,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>107</v>
@@ -12175,13 +12098,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12206,14 +12129,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12282,10 +12205,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12385,10 +12308,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12490,10 +12413,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12533,7 +12456,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12575,30 +12498,30 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK106" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12621,13 +12544,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12678,27 +12601,27 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK107" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>113</v>
@@ -12741,7 +12664,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -12783,30 +12706,30 @@
         <v>77</v>
       </c>
       <c r="AF108" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK108" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -12829,13 +12752,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -12886,33 +12809,33 @@
         <v>77</v>
       </c>
       <c r="AF109" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG109" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK109" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -12937,16 +12860,16 @@
         <v>93</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13015,7 +12938,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>105</v>
@@ -13118,7 +13041,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>107</v>
@@ -13223,7 +13146,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>113</v>
@@ -13266,7 +13189,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -13308,30 +13231,30 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK113" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13354,16 +13277,16 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -13413,33 +13336,33 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK114" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -13464,16 +13387,16 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="O115" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -13542,7 +13465,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>105</v>
@@ -13645,7 +13568,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>107</v>
@@ -13750,7 +13673,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>113</v>
@@ -13793,7 +13716,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -13835,30 +13758,30 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK118" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -13881,16 +13804,16 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
@@ -13940,30 +13863,30 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK119" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14045,30 +13968,30 @@
         <v>77</v>
       </c>
       <c r="AF120" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK120" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -14091,13 +14014,13 @@
         <v>77</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -14148,22 +14071,22 @@
         <v>77</v>
       </c>
       <c r="AF121" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG121" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK121" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
